--- a/Downer/29267/res_F2LSIP ITP 6 - Barriers.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 6 - Barriers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A9DC28-00EA-44C2-8E3D-93E8F714FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C627D2E3-7A1F-47C8-A060-DC03907BDC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="1200" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9210" yWindow="1095" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
   <si>
     <t>type</t>
   </si>
@@ -58,9 +58,6 @@
     <t>itp</t>
   </si>
   <si>
-    <t>F2LSIP - ITP 6 - Road Barriers</t>
-  </si>
-  <si>
     <t>checklist</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>Inspection Point: Quality Control Activity - Check Sheet</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Contractor to provide end terminal check sheet signed by a suitably qualified person.</t>
-  </si>
-  <si>
     <t>Verifying Document - Barrier Inspection form</t>
   </si>
   <si>
@@ -245,6 +239,15 @@
   </si>
   <si>
     <t>Frequency - Once Per String</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Contractor to provide end terminal check sheet signed by a suitably qualified person. Construction Review and Audit Form (RSHDS4) filed in QA File.</t>
+  </si>
+  <si>
+    <t>F2LSIP - ITP 06 - Road Barriers</t>
+  </si>
+  <si>
+    <t>7dde947d-7988-4d6c-a73d-2cadca3f7556</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +598,17 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
       </patternFill>
     </fill>
   </fills>
@@ -758,13 +772,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1120,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1153,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,12 +1179,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1178,119 +1194,122 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,15 +1349,15 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1346,7 +1365,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1362,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1370,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1394,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1402,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1410,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1418,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1426,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1450,7 +1469,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1493,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1490,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1498,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1506,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1533,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1522,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,15 +1549,15 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1690,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1765,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1773,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,15 +1781,15 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,15 +1805,15 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>66</v>
+      <c r="A79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1810,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +1861,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1858,7 +1877,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1882,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,15 +1917,15 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
